--- a/data/pca/factorExposure/factorExposure_2012-11-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.001658475307861607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002076576871377291</v>
+      </c>
+      <c r="C2">
+        <v>-0.03068976768295497</v>
+      </c>
+      <c r="D2">
+        <v>0.004342509299484818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001444883999898849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006843654104603584</v>
+      </c>
+      <c r="C4">
+        <v>-0.08336410500551976</v>
+      </c>
+      <c r="D4">
+        <v>0.07501728456213359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00044371336755152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01445215287109095</v>
+      </c>
+      <c r="C6">
+        <v>-0.1146471730568135</v>
+      </c>
+      <c r="D6">
+        <v>0.03386959041083953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.00214730639614801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004646027938365448</v>
+      </c>
+      <c r="C7">
+        <v>-0.05734045554701324</v>
+      </c>
+      <c r="D7">
+        <v>0.03231737570395055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.000336421541982931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005874317315453167</v>
+      </c>
+      <c r="C8">
+        <v>-0.03674636688933988</v>
+      </c>
+      <c r="D8">
+        <v>0.04040620370638659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.004368935795818583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004846760083060117</v>
+      </c>
+      <c r="C9">
+        <v>-0.07066493851698133</v>
+      </c>
+      <c r="D9">
+        <v>0.07284737411468634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.001452961844043779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005507161966451199</v>
+      </c>
+      <c r="C10">
+        <v>-0.05766127932638399</v>
+      </c>
+      <c r="D10">
+        <v>-0.1968366330994266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.004205994834789221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005820547669643108</v>
+      </c>
+      <c r="C11">
+        <v>-0.07972483033409415</v>
+      </c>
+      <c r="D11">
+        <v>0.06052914006138959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001327187569974339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004042416704661747</v>
+      </c>
+      <c r="C12">
+        <v>-0.06384065779251723</v>
+      </c>
+      <c r="D12">
+        <v>0.04752490133813673</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.001763869856009194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00886915668042804</v>
+      </c>
+      <c r="C13">
+        <v>-0.06947162640210999</v>
+      </c>
+      <c r="D13">
+        <v>0.05741833337675231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.002523885627305777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001046939299775918</v>
+      </c>
+      <c r="C14">
+        <v>-0.04389339546444076</v>
+      </c>
+      <c r="D14">
+        <v>0.006505909228338609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009082585355042071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005955707663818561</v>
+      </c>
+      <c r="C15">
+        <v>-0.04153658538118894</v>
+      </c>
+      <c r="D15">
+        <v>0.0306491128029951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001831460653567192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005047842467133757</v>
+      </c>
+      <c r="C16">
+        <v>-0.06433330934286341</v>
+      </c>
+      <c r="D16">
+        <v>0.05197373781524087</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001230018150991639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008564460601674267</v>
+      </c>
+      <c r="C20">
+        <v>-0.06549330353995832</v>
+      </c>
+      <c r="D20">
+        <v>0.04303192163766032</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005797980179849375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009769173598488041</v>
+      </c>
+      <c r="C21">
+        <v>-0.02154143810762693</v>
+      </c>
+      <c r="D21">
+        <v>0.0382430037805811</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01732683466867435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006332285449382979</v>
+      </c>
+      <c r="C22">
+        <v>-0.09309888218603704</v>
+      </c>
+      <c r="D22">
+        <v>0.1152130813212461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01765969946200445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006146871587040748</v>
+      </c>
+      <c r="C23">
+        <v>-0.09391796687982729</v>
+      </c>
+      <c r="D23">
+        <v>0.1151659203175374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.003586036485311348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005525410476421748</v>
+      </c>
+      <c r="C24">
+        <v>-0.07647015005170286</v>
+      </c>
+      <c r="D24">
+        <v>0.06553197284774272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005719573066958529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003165391759868446</v>
+      </c>
+      <c r="C25">
+        <v>-0.07767722493790688</v>
+      </c>
+      <c r="D25">
+        <v>0.06672833410550491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.004277380577271402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003595543366725015</v>
+      </c>
+      <c r="C26">
+        <v>-0.04028643916100272</v>
+      </c>
+      <c r="D26">
+        <v>0.02220004927610568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.007660533026481369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001036442741009671</v>
+      </c>
+      <c r="C28">
+        <v>-0.1072825926343763</v>
+      </c>
+      <c r="D28">
+        <v>-0.3196191934503256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001397110109137547</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002926504585318355</v>
+      </c>
+      <c r="C29">
+        <v>-0.04963371442550759</v>
+      </c>
+      <c r="D29">
+        <v>0.008983853170780003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005009473227281267</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01003769149048154</v>
+      </c>
+      <c r="C30">
+        <v>-0.1417329937221762</v>
+      </c>
+      <c r="D30">
+        <v>0.1040450826793671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001612834259156122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006312719761800731</v>
+      </c>
+      <c r="C31">
+        <v>-0.04437735747993009</v>
+      </c>
+      <c r="D31">
+        <v>0.02895083323445722</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003166381065820722</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003878722298458817</v>
+      </c>
+      <c r="C32">
+        <v>-0.03833156180886481</v>
+      </c>
+      <c r="D32">
+        <v>0.02393743406149598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003562647535707998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008692367406505102</v>
+      </c>
+      <c r="C33">
+        <v>-0.08659866133810863</v>
+      </c>
+      <c r="D33">
+        <v>0.06500656824252858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005340840948576385</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.00405097282100445</v>
+      </c>
+      <c r="C34">
+        <v>-0.05726710359722222</v>
+      </c>
+      <c r="D34">
+        <v>0.05407937305466941</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0008899015363714955</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005059387141715916</v>
+      </c>
+      <c r="C35">
+        <v>-0.04012269651324912</v>
+      </c>
+      <c r="D35">
+        <v>0.01836391129575879</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004426325601265179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001087290231416878</v>
+      </c>
+      <c r="C36">
+        <v>-0.02536788734751463</v>
+      </c>
+      <c r="D36">
+        <v>0.0218335026081105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00133569212091681</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009256747400808457</v>
+      </c>
+      <c r="C38">
+        <v>-0.03468426652986896</v>
+      </c>
+      <c r="D38">
+        <v>0.01381715089582252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01420424071289365</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007778986460432111</v>
+      </c>
+      <c r="C39">
+        <v>-0.115256572568654</v>
+      </c>
+      <c r="D39">
+        <v>0.07542994324453883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.01001344882871832</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.00308351088763467</v>
+      </c>
+      <c r="C40">
+        <v>-0.09059805930781553</v>
+      </c>
+      <c r="D40">
+        <v>0.01273350339874166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.001138060293546915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007334271873190478</v>
+      </c>
+      <c r="C41">
+        <v>-0.03790727023118378</v>
+      </c>
+      <c r="D41">
+        <v>0.0381996584045896</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003696466767633681</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004008460954470138</v>
+      </c>
+      <c r="C43">
+        <v>-0.05337902431321257</v>
+      </c>
+      <c r="D43">
+        <v>0.02447812780881074</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.0161094183576371</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003267121326806748</v>
+      </c>
+      <c r="C44">
+        <v>-0.1091522548207605</v>
+      </c>
+      <c r="D44">
+        <v>0.06756884308774262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.000900342269790012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001833583028757958</v>
+      </c>
+      <c r="C46">
+        <v>-0.03291003353288841</v>
+      </c>
+      <c r="D46">
+        <v>0.03503041894570123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0008705329715726732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002451633125985273</v>
+      </c>
+      <c r="C47">
+        <v>-0.03679050918476796</v>
+      </c>
+      <c r="D47">
+        <v>0.02322993797754817</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003952026163192272</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00676768697456453</v>
+      </c>
+      <c r="C48">
+        <v>-0.03134719543863328</v>
+      </c>
+      <c r="D48">
+        <v>0.03233796163347132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01350100878893907</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01607922531439419</v>
+      </c>
+      <c r="C49">
+        <v>-0.1831172582056108</v>
+      </c>
+      <c r="D49">
+        <v>0.0141258482694864</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001950388544614597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003706413334948401</v>
+      </c>
+      <c r="C50">
+        <v>-0.04331706384938188</v>
+      </c>
+      <c r="D50">
+        <v>0.03720689071651224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0002148170580368962</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004798291952430701</v>
+      </c>
+      <c r="C51">
+        <v>-0.02593944163134269</v>
+      </c>
+      <c r="D51">
+        <v>0.02103819421979349</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008204541996266012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02113322959411656</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698340161349328</v>
+      </c>
+      <c r="D53">
+        <v>0.02711310386952004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001369888109228048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008872263039083537</v>
+      </c>
+      <c r="C54">
+        <v>-0.05457448218348541</v>
+      </c>
+      <c r="D54">
+        <v>0.04497449424573275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.005640366217782423</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009404960698962635</v>
+      </c>
+      <c r="C55">
+        <v>-0.1101341990631044</v>
+      </c>
+      <c r="D55">
+        <v>0.03909929854154998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.0003289093772300461</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02025416753125121</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739426250400285</v>
+      </c>
+      <c r="D56">
+        <v>0.01902131927229691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009556405423152892</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.019350313406229</v>
+      </c>
+      <c r="C58">
+        <v>-0.109290024670233</v>
+      </c>
+      <c r="D58">
+        <v>0.06356037330662087</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009151025958871243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01000948720068068</v>
+      </c>
+      <c r="C59">
+        <v>-0.1653721227162591</v>
+      </c>
+      <c r="D59">
+        <v>-0.3303324486793334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.005833415876705115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02501149380938706</v>
+      </c>
+      <c r="C60">
+        <v>-0.2229637379480709</v>
+      </c>
+      <c r="D60">
+        <v>0.03105926466492611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01546929876454559</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001699946693593373</v>
+      </c>
+      <c r="C61">
+        <v>-0.09437478321406927</v>
+      </c>
+      <c r="D61">
+        <v>0.05712945613827435</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1589410714465269</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1470466792517732</v>
+      </c>
+      <c r="C62">
+        <v>-0.09352470711461461</v>
+      </c>
+      <c r="D62">
+        <v>0.03727422642402115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001110363115315955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006529280348611077</v>
+      </c>
+      <c r="C63">
+        <v>-0.05474652021308089</v>
+      </c>
+      <c r="D63">
+        <v>0.02609275591553909</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.001435904555493115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01503114523469851</v>
+      </c>
+      <c r="C64">
+        <v>-0.1056965977099621</v>
+      </c>
+      <c r="D64">
+        <v>0.06108997451290222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002169765122931545</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01807420051926435</v>
+      </c>
+      <c r="C65">
+        <v>-0.1248057046721927</v>
+      </c>
+      <c r="D65">
+        <v>0.02417228969083039</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008330179346713523</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01321648214982041</v>
+      </c>
+      <c r="C66">
+        <v>-0.1588779233606861</v>
+      </c>
+      <c r="D66">
+        <v>0.1143993711917877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.002898261517499385</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01561450652777819</v>
+      </c>
+      <c r="C67">
+        <v>-0.0656332455976719</v>
+      </c>
+      <c r="D67">
+        <v>0.02592734195920272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.007024239703415803</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0009953362155900747</v>
+      </c>
+      <c r="C68">
+        <v>-0.08692692659405302</v>
+      </c>
+      <c r="D68">
+        <v>-0.2616533083985819</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002222394391375556</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006029865407663587</v>
+      </c>
+      <c r="C69">
+        <v>-0.05106992214426042</v>
+      </c>
+      <c r="D69">
+        <v>0.03764478261915456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0003740601917176058</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001793933521533749</v>
+      </c>
+      <c r="C70">
+        <v>-0.00277492016489866</v>
+      </c>
+      <c r="D70">
+        <v>0.0007765545288985058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001475186756556639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006034629217660529</v>
+      </c>
+      <c r="C71">
+        <v>-0.09428378573069411</v>
+      </c>
+      <c r="D71">
+        <v>-0.3040412857673599</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005974143963634031</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01615088577090716</v>
+      </c>
+      <c r="C72">
+        <v>-0.1531781038590269</v>
+      </c>
+      <c r="D72">
+        <v>0.01456720384166755</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01518075420274206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03162368118751568</v>
+      </c>
+      <c r="C73">
+        <v>-0.2807564690565417</v>
+      </c>
+      <c r="D73">
+        <v>0.05823585831627106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006971982916195022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002199121450551522</v>
+      </c>
+      <c r="C74">
+        <v>-0.1041883385482685</v>
+      </c>
+      <c r="D74">
+        <v>0.03384578736160708</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.004274899054574397</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01139955034556517</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247820961063421</v>
+      </c>
+      <c r="D75">
+        <v>0.0216208973207609</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.005135720656115052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02230576481053486</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489344042810922</v>
+      </c>
+      <c r="D76">
+        <v>0.05745746570357041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.003259742787341374</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02238307578908944</v>
+      </c>
+      <c r="C77">
+        <v>-0.1189426120467408</v>
+      </c>
+      <c r="D77">
+        <v>0.08484296082199395</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0001463530667081157</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01505173866890295</v>
+      </c>
+      <c r="C78">
+        <v>-0.0966081339937306</v>
+      </c>
+      <c r="D78">
+        <v>0.07243519976597042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02131022023672814</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03782299745051929</v>
+      </c>
+      <c r="C79">
+        <v>-0.1571722462183061</v>
+      </c>
+      <c r="D79">
+        <v>0.03193292901692483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005149170621377036</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.0100940137833543</v>
+      </c>
+      <c r="C80">
+        <v>-0.03961649140195993</v>
+      </c>
+      <c r="D80">
+        <v>0.02843442200288204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0003705340966130939</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01621282608667878</v>
+      </c>
+      <c r="C81">
+        <v>-0.1289656971391635</v>
+      </c>
+      <c r="D81">
+        <v>0.04078176988813861</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.002116395932200797</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01995144590932826</v>
+      </c>
+      <c r="C82">
+        <v>-0.1407308542705311</v>
+      </c>
+      <c r="D82">
+        <v>0.03730258188808314</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.006657855994394364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009995292814474683</v>
+      </c>
+      <c r="C83">
+        <v>-0.05528521150664758</v>
+      </c>
+      <c r="D83">
+        <v>0.05476229019334993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01201428521828433</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01127391444008814</v>
+      </c>
+      <c r="C84">
+        <v>-0.03700192472377029</v>
+      </c>
+      <c r="D84">
+        <v>-0.002136875705930083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01195957152538025</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02897364002234451</v>
+      </c>
+      <c r="C85">
+        <v>-0.1251635185835951</v>
+      </c>
+      <c r="D85">
+        <v>0.04395003399831857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.002934216732416808</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004917917801317596</v>
+      </c>
+      <c r="C86">
+        <v>-0.04927712582993708</v>
+      </c>
+      <c r="D86">
+        <v>0.03108889573029189</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004435453335127461</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01088958016988273</v>
+      </c>
+      <c r="C87">
+        <v>-0.1285361313747314</v>
+      </c>
+      <c r="D87">
+        <v>0.07323925441853378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01154052404487707</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00276564421911341</v>
+      </c>
+      <c r="C88">
+        <v>-0.06509865799763548</v>
+      </c>
+      <c r="D88">
+        <v>0.01953453666441922</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01557920091843354</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001403808676668689</v>
+      </c>
+      <c r="C89">
+        <v>-0.1473429354966635</v>
+      </c>
+      <c r="D89">
+        <v>-0.3290840791237357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003146463484783826</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00673579596515119</v>
+      </c>
+      <c r="C90">
+        <v>-0.1208246972999447</v>
+      </c>
+      <c r="D90">
+        <v>-0.3162940442613403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001232770040955112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01058790168471324</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002919686039021</v>
+      </c>
+      <c r="D91">
+        <v>0.02283903718024418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01054434567475104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000986973968812067</v>
+      </c>
+      <c r="C92">
+        <v>-0.1366548523954942</v>
+      </c>
+      <c r="D92">
+        <v>-0.3225110910978577</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.002341051291630915</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005074448674372304</v>
+      </c>
+      <c r="C93">
+        <v>-0.1059561005292761</v>
+      </c>
+      <c r="D93">
+        <v>-0.3003947059506449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0008869938069118183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02258907188362858</v>
+      </c>
+      <c r="C94">
+        <v>-0.1456593917995516</v>
+      </c>
+      <c r="D94">
+        <v>0.05094769026718868</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.003415059683429481</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01744428546269181</v>
+      </c>
+      <c r="C95">
+        <v>-0.124720375061173</v>
+      </c>
+      <c r="D95">
+        <v>0.05898564018138155</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001156850921735898</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03685092354802904</v>
+      </c>
+      <c r="C97">
+        <v>-0.2170120674013938</v>
+      </c>
+      <c r="D97">
+        <v>-0.01671190510202361</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00472949287047855</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.0374319332463031</v>
+      </c>
+      <c r="C98">
+        <v>-0.2489741897896898</v>
+      </c>
+      <c r="D98">
+        <v>0.04790182006951067</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9852162710091045</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816760360959215</v>
+      </c>
+      <c r="C99">
+        <v>0.1187349192584179</v>
+      </c>
+      <c r="D99">
+        <v>-0.02640409270901066</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001319650396807358</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.002967801892845353</v>
+      </c>
+      <c r="C101">
+        <v>-0.04977382487314749</v>
+      </c>
+      <c r="D101">
+        <v>0.009355132314615919</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
